--- a/init3.xlsx
+++ b/init3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>臺南市政府警察局指(掌)紋初鑑報告書</t>
   </si>
@@ -49,31 +49,6 @@
     <t>備註</t>
   </si>
   <si>
-    <t>肆、備註：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   一、本初鑑報告書係依內政部警政署113年10月11日警署刑紋字第1130013434號函
-       、113年12月13日警署刑紋字第1130016625號函辦理初鑑。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   二、本案未比中之指(掌)紋由本局刑事鑑識中心利用指紋遠端工作站持續比對，
-       如比中未曾比中之對象時，依前項標準篩選，重新取號送刑事局製作鑑定書。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   三、重大、特殊刑案有取得刑事局鑑定書之必要，得視偵查需求檢附相關送鑑資料
-       並先行向本局刑事鑑識中心聯繫。</t>
-  </si>
-  <si>
-    <t>第二層決行</t>
-  </si>
-  <si>
-    <t>初鑑</t>
-  </si>
-  <si>
-    <t>採驗紀錄表號：南市警○鑑字第#號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>壹、案由：#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,15 +61,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>複鑑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">             審核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">              決行</t>
+    <t xml:space="preserve">                       採驗紀錄表號：南市警○鑑字第#號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,20 +100,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="27"/>
       <color theme="1"/>
       <name val="標楷體"/>
@@ -169,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -234,52 +187,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -294,7 +201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -316,28 +223,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -353,38 +242,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,89 +538,90 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="17" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="17" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="17" customWidth="1"/>
-    <col min="6" max="6" width="25.625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="25.625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="14"/>
+      <c r="D1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="19"/>
+      <c r="A3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="A4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="A6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -773,7 +643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -781,7 +651,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -789,15 +659,15 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -805,7 +675,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -813,7 +683,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -821,115 +691,378 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="1:6" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19" spans="1:6" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-    </row>
-    <row r="20" spans="1:6" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="151.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="32"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+    <row r="16" spans="1:6" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="3">
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A20:F20"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A8:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
